--- a/HOSKPG_UNIDENTIFIED_RONA/Workdays - 23 April/VSol1-188/Unidentified  VSOL_1.xlsx
+++ b/HOSKPG_UNIDENTIFIED_RONA/Workdays - 23 April/VSol1-188/Unidentified  VSOL_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCA\RONA\HOSKPG_UNIDENTIFIED_RONA\Workdays - 23 April\VSol1-188\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCA\RONA\RONA_Housekeeping\HOSKPG_UNIDENTIFIED_RONA\Workdays - 23 April\VSol1-188\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="0" windowWidth="19500" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="3975" yWindow="0" windowWidth="19500" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unidentified Report VSOL_1" sheetId="1" r:id="rId1"/>
@@ -1142,9 +1142,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1155,9 +1153,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1168,9 +1164,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1178,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,18 +1236,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1266,22 +1248,93 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1441,6 +1494,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1455,15 +1518,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B4:F138" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B4:F138" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="5">
-    <tableColumn id="1" name="Unidentified Report" dataDxfId="5"/>
-    <tableColumn id="2" name="Jobname" dataDxfId="4"/>
-    <tableColumn id="3" name="Dataset" dataDxfId="3"/>
-    <tableColumn id="4" name="Reason" dataDxfId="2"/>
-    <tableColumn id="5" name="Follow Up" dataDxfId="1"/>
+    <tableColumn id="1" name="Unidentified Report" dataDxfId="8"/>
+    <tableColumn id="2" name="Jobname" dataDxfId="7"/>
+    <tableColumn id="3" name="Dataset" dataDxfId="6"/>
+    <tableColumn id="4" name="Reason" dataDxfId="5"/>
+    <tableColumn id="5" name="Follow Up" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="B5:D65" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="B5:D65"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Unidentified Source File" dataDxfId="2"/>
+    <tableColumn id="2" name="Reason" dataDxfId="1"/>
+    <tableColumn id="3" name="Follow Up" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1754,13 +1829,13 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -9046,7 +9121,7 @@
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C26">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
@@ -9061,8 +9136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9074,448 +9149,450 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
     <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
     </row>
     <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
     </row>
     <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
     </row>
     <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="61" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>